--- a/documentation/build_orders/zerg/greedy_lurkers.xlsx
+++ b/documentation/build_orders/zerg/greedy_lurkers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\build_orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\build_orders\zerg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EEB432-A9F7-41B3-A917-C8014869A34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECE4E54-4CA2-4073-81AF-323F924E7F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="8265" xr2:uid="{8F91843A-8CB0-4ACA-A959-FCE1F6361964}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F91843A-8CB0-4ACA-A959-FCE1F6361964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C1E2F8-D576-4889-93BF-4269B7626941}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,6 +511,9 @@
       <c r="C2">
         <v>35</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -521,6 +524,9 @@
       </c>
       <c r="C3">
         <v>55</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -533,6 +539,9 @@
       <c r="C4">
         <v>70</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -543,6 +552,9 @@
       </c>
       <c r="C5">
         <v>105</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -555,6 +567,9 @@
       <c r="C6">
         <v>140</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -566,6 +581,9 @@
       <c r="C7">
         <v>210</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -577,6 +595,9 @@
       <c r="C8">
         <v>210</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -588,6 +609,9 @@
       <c r="C9">
         <v>225</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -598,6 +622,9 @@
       </c>
       <c r="C10">
         <v>225</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -610,6 +637,9 @@
       <c r="C11">
         <v>360</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -621,6 +651,9 @@
       <c r="C12">
         <v>390</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -632,6 +665,9 @@
       <c r="C13">
         <v>450</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -643,6 +679,9 @@
       <c r="C14">
         <v>450</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -654,6 +693,9 @@
       <c r="C15">
         <v>490</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -665,8 +707,11 @@
       <c r="C16">
         <v>510</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -676,8 +721,11 @@
       <c r="C17">
         <v>510</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -687,8 +735,11 @@
       <c r="C18">
         <v>510</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -697,6 +748,9 @@
       </c>
       <c r="C19">
         <v>540</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
